--- a/data/uk-hack-results/UK_hack_result_chart.xlsx
+++ b/data/uk-hack-results/UK_hack_result_chart.xlsx
@@ -1,34 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thammegr/work/papers/image-rec/data/uk-hack-results/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27629"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="19">
   <si>
     <t>rifle</t>
   </si>
@@ -71,12 +67,27 @@
   <si>
     <t>total</t>
   </si>
+  <si>
+    <t>Weapon Class</t>
+  </si>
+  <si>
+    <t>Predicted Class Rank</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>not included</t>
+  </si>
+  <si>
+    <t>correctly identified</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -122,6 +133,22 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -140,8 +167,68 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -153,7 +240,67 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="61">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -525,11 +672,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2021523776"/>
-        <c:axId val="-2019824704"/>
+        <c:axId val="2097129592"/>
+        <c:axId val="2097133064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2021523776"/>
+        <c:axId val="2097129592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -572,7 +719,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2019824704"/>
+        <c:crossAx val="2097133064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -580,7 +727,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2019824704"/>
+        <c:axId val="2097133064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -600,6 +747,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -630,7 +778,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2021523776"/>
+        <c:crossAx val="2097129592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1079,11 +1227,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2020580288"/>
-        <c:axId val="-2018822544"/>
+        <c:axId val="2136245256"/>
+        <c:axId val="2136248872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2020580288"/>
+        <c:axId val="2136245256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1126,7 +1274,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2018822544"/>
+        <c:crossAx val="2136248872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1134,7 +1282,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2018822544"/>
+        <c:axId val="2136248872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1185,7 +1333,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2020580288"/>
+        <c:crossAx val="2136245256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1682,11 +1830,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="-2019778880"/>
-        <c:axId val="-2019398528"/>
+        <c:axId val="2136304792"/>
+        <c:axId val="2136308376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2019778880"/>
+        <c:axId val="2136304792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1729,7 +1877,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2019398528"/>
+        <c:crossAx val="2136308376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1737,7 +1885,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2019398528"/>
+        <c:axId val="2136308376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1757,6 +1905,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1787,7 +1936,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2019778880"/>
+        <c:crossAx val="2136304792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2167,11 +2316,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2069219216"/>
-        <c:axId val="-2069692640"/>
+        <c:axId val="2136344072"/>
+        <c:axId val="2136347720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2069219216"/>
+        <c:axId val="2136344072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2214,7 +2363,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2069692640"/>
+        <c:crossAx val="2136347720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2222,7 +2371,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2069692640"/>
+        <c:axId val="2136347720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2273,7 +2422,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2069219216"/>
+        <c:crossAx val="2136344072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2287,6 +2436,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4706,7 +4856,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -4741,7 +4891,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -4918,7 +5068,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4928,19 +5078,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="17">
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="17">
       <c r="B4" s="2"/>
       <c r="C4" s="7" t="s">
         <v>11</v>
@@ -4952,7 +5102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="17">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
@@ -4969,7 +5119,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="17">
       <c r="A6" s="3"/>
       <c r="B6" s="7" t="s">
         <v>0</v>
@@ -4984,12 +5134,12 @@
         <v>545</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="17">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="17">
       <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
@@ -5006,7 +5156,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="17">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>0</v>
@@ -5021,12 +5171,12 @@
         <v>545</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="17">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="17">
       <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
@@ -5043,7 +5193,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="17">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="s">
         <v>0</v>
@@ -5058,12 +5208,12 @@
         <v>545</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="17">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="17">
       <c r="A14" s="7" t="s">
         <v>10</v>
       </c>
@@ -5080,7 +5230,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="17">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="s">
         <v>0</v>
@@ -5097,7 +5247,13 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5106,21 +5262,21 @@
   <dimension ref="B4:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B5" sqref="B5:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="13.83203125" customWidth="1"/>
     <col min="10" max="10" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="18">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="18">
       <c r="B5" s="4"/>
       <c r="C5" s="3"/>
       <c r="D5" s="5" t="s">
@@ -5133,7 +5289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="18">
       <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
@@ -5150,7 +5306,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="18">
       <c r="B7" s="3"/>
       <c r="C7" s="6" t="s">
         <v>0</v>
@@ -5165,7 +5321,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="18">
       <c r="B8" s="3"/>
       <c r="C8" s="6" t="s">
         <v>1</v>
@@ -5180,7 +5336,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="17">
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -5188,7 +5344,7 @@
       <c r="F9" s="4"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="2:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="18">
       <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
@@ -5206,7 +5362,7 @@
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="2:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="18">
       <c r="B11" s="3"/>
       <c r="C11" s="6" t="s">
         <v>0</v>
@@ -5222,7 +5378,7 @@
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="2:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="18">
       <c r="B12" s="3"/>
       <c r="C12" s="6" t="s">
         <v>1</v>
@@ -5237,14 +5393,14 @@
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9">
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="2:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="18">
       <c r="B14" s="5" t="s">
         <v>4</v>
       </c>
@@ -5261,7 +5417,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="18">
       <c r="B15" s="3"/>
       <c r="C15" s="6" t="s">
         <v>0</v>
@@ -5276,7 +5432,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="18">
       <c r="B16" s="3"/>
       <c r="C16" s="6" t="s">
         <v>1</v>
@@ -5291,14 +5447,14 @@
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6">
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="18">
       <c r="B18" s="5" t="s">
         <v>5</v>
       </c>
@@ -5315,7 +5471,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="18">
       <c r="B19" s="3"/>
       <c r="C19" s="6" t="s">
         <v>0</v>
@@ -5330,7 +5486,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="18">
       <c r="B20" s="3"/>
       <c r="C20" s="6" t="s">
         <v>1</v>
@@ -5347,6 +5503,275 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="17">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2">
+        <v>202</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>190</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>438</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17">
+      <c r="A5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>107</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17">
+      <c r="A6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>276</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17">
+      <c r="A7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>116</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17">
+      <c r="A8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>498</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17">
+      <c r="A9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>47</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17">
+      <c r="A10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>309</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17">
+      <c r="A11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>83</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17">
+      <c r="A12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>505</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17">
+      <c r="A13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>40</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17">
+      <c r="A14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>317</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17">
+      <c r="A15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>75</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17">
+      <c r="A16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>514</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17">
+      <c r="A17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>31</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/data/uk-hack-results/UK_hack_result_chart.xlsx
+++ b/data/uk-hack-results/UK_hack_result_chart.xlsx
@@ -4571,8 +4571,8 @@
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
@@ -4928,7 +4928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B42" workbookViewId="0">
       <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
